--- a/static/file/template_host.xlsx
+++ b/static/file/template_host.xlsx
@@ -413,13 +413,13 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
@@ -470,7 +470,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"dev,pro"</formula1>
+      <formula1>"dev,test,pro"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"nginx,java,tomcat,mysql,redis,mongodb,kafka,zookeeper"</formula1>

--- a/static/file/template_host.xlsx
+++ b/static/file/template_host.xlsx
@@ -104,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,6 +427,7 @@
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -466,28 +468,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>"dev,test,pro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"nginx,java,tomcat,mysql,redis,mongodb,kafka,zookeeper"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+      <formula1>"nginx-proxy,nginx-web,java,tomcat,mysql,redis,mongodb,kafka,zookeeper"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"机房,阿里云"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 L2:L5">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
       <formula1>"CentOS 6,CentOS 7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"4C 8G 40G,8C 16G 80G"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
       <formula1>"虚拟机,物理机"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/file/template_host.xlsx
+++ b/static/file/template_host.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,11 +490,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>"dev,test,pro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5">
       <formula1>"nginx-proxy,nginx-web,java,tomcat,mysql,redis,mongodb,kafka,zookeeper"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
@@ -511,6 +511,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
       <formula1>"虚拟机,物理机"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"nginx-proxy,nginx-web,java,tomcat,iis,mysql,redis,mongodb,kafka,zookeeper"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
